--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296437.4731425233</v>
+        <v>-298926.3459532569</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002518</v>
+        <v>344.2204013002517</v>
       </c>
       <c r="C11" t="n">
         <v>326.7594514077787</v>
       </c>
       <c r="D11" t="n">
-        <v>316.1696012574541</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>181.8719222794547</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>368.3626053784826</v>
       </c>
       <c r="G11" t="n">
-        <v>372.6330561788419</v>
+        <v>372.6330561788418</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>258.3962588871428</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.72896909311294</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.79628804931215</v>
       </c>
       <c r="T11" t="n">
-        <v>166.3884643413133</v>
+        <v>166.3884643413132</v>
       </c>
       <c r="U11" t="n">
         <v>212.4997132667625</v>
       </c>
       <c r="V11" t="n">
-        <v>289.2388181069061</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>253.7506543845066</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X11" t="n">
         <v>331.2176603152402</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.0197432866385</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>134.1950586250869</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1464,10 +1464,10 @@
         <v>135.1197321935187</v>
       </c>
       <c r="H12" t="n">
-        <v>52.24492271861126</v>
+        <v>52.24492271861121</v>
       </c>
       <c r="I12" t="n">
-        <v>22.95785363122047</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>130.377340636095</v>
       </c>
       <c r="T12" t="n">
-        <v>155.3672309734314</v>
+        <v>152.6878743528783</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7950804382319</v>
+        <v>187.2816400750031</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>194.2871467861964</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>238.8187530494646</v>
       </c>
       <c r="X12" t="n">
-        <v>167.2595448402487</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
-        <v>128.733380735399</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>48.88670096683634</v>
+        <v>107.9205222833403</v>
       </c>
       <c r="F13" t="n">
         <v>106.9076076597024</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6131923784189</v>
+        <v>127.6131923784188</v>
       </c>
       <c r="H13" t="n">
         <v>107.1379958601998</v>
       </c>
       <c r="I13" t="n">
-        <v>60.87104721483911</v>
+        <v>60.87104721483905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.95214767987314</v>
+        <v>54.95214767987308</v>
       </c>
       <c r="S13" t="n">
         <v>153.0126807244091</v>
       </c>
       <c r="T13" t="n">
-        <v>181.4663044295873</v>
+        <v>181.4663044295872</v>
       </c>
       <c r="U13" t="n">
         <v>247.7038973596178</v>
       </c>
       <c r="V13" t="n">
-        <v>213.6242029605992</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W13" t="n">
-        <v>248.0095579733622</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
         <v>187.1962150258083</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.071212988866</v>
+        <v>108.4522325890538</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002518</v>
+        <v>344.2204013002517</v>
       </c>
       <c r="C14" t="n">
         <v>326.7594514077787</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>343.416929709033</v>
+        <v>343.4169297090329</v>
       </c>
       <c r="F14" t="n">
         <v>368.3626053784826</v>
       </c>
       <c r="G14" t="n">
-        <v>372.6330561788419</v>
+        <v>372.6330561788418</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>215.540187915239</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.64043382120452</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>166.3884643413133</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069061</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
         <v>331.2176603152402</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928248</v>
+        <v>347.7244982928247</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1695,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>106.555772030155</v>
       </c>
       <c r="G15" t="n">
-        <v>96.60629183028988</v>
+        <v>96.60629183028982</v>
       </c>
       <c r="H15" t="n">
-        <v>52.24492271861128</v>
+        <v>90.75836308184009</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22.95785363122047</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.609766986073083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.377340636095</v>
+        <v>94.54325689341974</v>
       </c>
       <c r="T15" t="n">
-        <v>170.7153176185792</v>
+        <v>152.6878743528783</v>
       </c>
       <c r="U15" t="n">
         <v>187.2816400750031</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>167.1692554140755</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187085</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C16" t="n">
         <v>128.733380735399</v>
@@ -1771,19 +1771,19 @@
         <v>110.1020326549835</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>107.9205222833403</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597024</v>
+        <v>10.07741683010704</v>
       </c>
       <c r="G16" t="n">
-        <v>127.6131923784189</v>
+        <v>127.6131923784188</v>
       </c>
       <c r="H16" t="n">
-        <v>57.61680507775348</v>
+        <v>107.1379958601998</v>
       </c>
       <c r="I16" t="n">
-        <v>60.87104721483912</v>
+        <v>60.87104721483905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.95214767987314</v>
+        <v>54.95214767987308</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.0126807244091</v>
       </c>
       <c r="T16" t="n">
-        <v>181.4663044295873</v>
+        <v>181.4663044295872</v>
       </c>
       <c r="U16" t="n">
         <v>247.7038973596178</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605992</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>248.0095579733622</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X16" t="n">
         <v>187.1962150258083</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.071212988866</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>284.2456498441569</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136066</v>
+        <v>141.8574721046588</v>
       </c>
       <c r="G17" t="n">
         <v>313.4617763139658</v>
@@ -1895,7 +1895,7 @@
         <v>16.62500818443613</v>
       </c>
       <c r="T17" t="n">
-        <v>107.2171844764372</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>153.3284334018865</v>
@@ -1910,7 +1910,7 @@
         <v>272.0463804503642</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.00218054256237</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>68.84846342176246</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1941,7 +1941,7 @@
         <v>90.75836308184009</v>
       </c>
       <c r="I18" t="n">
-        <v>22.95785363122046</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.609766986073055</v>
       </c>
       <c r="S18" t="n">
         <v>130.377340636095</v>
@@ -1980,16 +1980,16 @@
         <v>225.7950804382319</v>
       </c>
       <c r="V18" t="n">
-        <v>140.5974621819404</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>174.8399448385819</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.9979755491995</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353757</v>
+        <v>10.49808354998936</v>
       </c>
       <c r="C20" t="n">
         <v>267.5881715429027</v>
@@ -2144,10 +2144,10 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y20" t="n">
-        <v>286.048560992927</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>58.94810371098852</v>
+        <v>37.43501196541381</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>90.75836308184009</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>130.377340636095</v>
+        <v>61.13206929982979</v>
       </c>
       <c r="T21" t="n">
         <v>191.2013147161072</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U23" t="n">
         <v>153.3104517307971</v>
@@ -2445,7 +2445,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621589</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.5625617986045</v>
+        <v>323.5625617986046</v>
       </c>
       <c r="C26" t="n">
-        <v>306.1016119061315</v>
+        <v>306.1016119061316</v>
       </c>
       <c r="D26" t="n">
-        <v>295.5117617558069</v>
+        <v>295.511761755807</v>
       </c>
       <c r="E26" t="n">
-        <v>322.7590902073857</v>
+        <v>322.7590902073858</v>
       </c>
       <c r="F26" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G26" t="n">
-        <v>351.7504457885774</v>
+        <v>351.7504457885775</v>
       </c>
       <c r="H26" t="n">
-        <v>235.4364845224444</v>
+        <v>235.4364845224445</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329975</v>
+        <v>50.01648192329984</v>
       </c>
       <c r="T26" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U26" t="n">
-        <v>191.8238920940259</v>
+        <v>191.823892094026</v>
       </c>
       <c r="V26" t="n">
-        <v>268.5809786052588</v>
+        <v>268.5809786052589</v>
       </c>
       <c r="W26" t="n">
         <v>290.069688852537</v>
@@ -2621,7 +2621,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.0666587911775</v>
+        <v>327.0666587911776</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.6607003170612</v>
+        <v>120.6607003170613</v>
       </c>
       <c r="C28" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.4441931533363</v>
+        <v>89.44419315333636</v>
       </c>
       <c r="E28" t="n">
-        <v>87.26268278169312</v>
+        <v>87.26268278169317</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24976815805519</v>
+        <v>86.24976815805525</v>
       </c>
       <c r="G28" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944473</v>
+        <v>85.58373504944478</v>
       </c>
       <c r="I28" t="n">
-        <v>37.18114054496203</v>
+        <v>37.1811405449621</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.76087280517126</v>
+        <v>29.76087280517133</v>
       </c>
       <c r="S28" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T28" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U28" t="n">
-        <v>227.0405583407368</v>
+        <v>227.0405583407369</v>
       </c>
       <c r="V28" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W28" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X28" t="n">
-        <v>166.5383755241611</v>
+        <v>166.5383755241612</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>323.5625617986045</v>
+        <v>323.5625617986046</v>
       </c>
       <c r="C29" t="n">
-        <v>306.1016119061315</v>
+        <v>306.1016119061316</v>
       </c>
       <c r="D29" t="n">
-        <v>295.5117617558069</v>
+        <v>295.511761755807</v>
       </c>
       <c r="E29" t="n">
-        <v>322.7590902073857</v>
+        <v>322.7590902073858</v>
       </c>
       <c r="F29" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G29" t="n">
-        <v>351.7504457885774</v>
+        <v>351.7504457885775</v>
       </c>
       <c r="H29" t="n">
-        <v>235.4364845224444</v>
+        <v>235.4364845224445</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329978</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U29" t="n">
-        <v>191.8238920940259</v>
+        <v>191.823892094026</v>
       </c>
       <c r="V29" t="n">
-        <v>268.5809786052588</v>
+        <v>268.5809786052589</v>
       </c>
       <c r="W29" t="n">
         <v>290.069688852537</v>
@@ -2858,7 +2858,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y29" t="n">
-        <v>327.0666587911775</v>
+        <v>327.0666587911776</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.6607003170612</v>
+        <v>120.6607003170613</v>
       </c>
       <c r="C31" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.4441931533363</v>
+        <v>89.44419315333636</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169312</v>
+        <v>87.26268278169317</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805519</v>
+        <v>86.24976815805525</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944473</v>
+        <v>85.58373504944478</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496204</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.76087280517127</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U31" t="n">
-        <v>227.0405583407368</v>
+        <v>227.0405583407369</v>
       </c>
       <c r="V31" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X31" t="n">
-        <v>166.5383755241611</v>
+        <v>166.5383755241612</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>323.5625617986045</v>
+        <v>323.5625617986046</v>
       </c>
       <c r="C32" t="n">
-        <v>306.1016119061315</v>
+        <v>306.1016119061316</v>
       </c>
       <c r="D32" t="n">
-        <v>295.5117617558069</v>
+        <v>295.511761755807</v>
       </c>
       <c r="E32" t="n">
-        <v>322.7590902073857</v>
+        <v>322.7590902073858</v>
       </c>
       <c r="F32" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G32" t="n">
-        <v>351.7504457885774</v>
+        <v>351.7504457885775</v>
       </c>
       <c r="H32" t="n">
         <v>235.4364845224444</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329976</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T32" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U32" t="n">
-        <v>191.8238920940259</v>
+        <v>191.823892094026</v>
       </c>
       <c r="V32" t="n">
-        <v>268.5809786052588</v>
+        <v>268.5809786052589</v>
       </c>
       <c r="W32" t="n">
         <v>290.069688852537</v>
@@ -3095,7 +3095,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.0666587911775</v>
+        <v>327.0666587911776</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.6607003170612</v>
+        <v>120.6607003170613</v>
       </c>
       <c r="C34" t="n">
-        <v>108.0755412337517</v>
+        <v>108.0755412337518</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333627</v>
+        <v>89.44419315333633</v>
       </c>
       <c r="E34" t="n">
-        <v>87.26268278169309</v>
+        <v>87.26268278169314</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805516</v>
+        <v>86.24976815805522</v>
       </c>
       <c r="G34" t="n">
-        <v>106.8545283941521</v>
+        <v>106.8545283941522</v>
       </c>
       <c r="H34" t="n">
-        <v>85.5837350494447</v>
+        <v>85.58373504944475</v>
       </c>
       <c r="I34" t="n">
-        <v>37.18114054496201</v>
+        <v>37.18114054496207</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.76087280517125</v>
+        <v>29.7608728051713</v>
       </c>
       <c r="S34" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U34" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V34" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W34" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X34" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309233</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333697</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309233</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333697</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,16 +3749,16 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.420943362973048e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247742</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309233</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333697</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115143</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4110,7 +4110,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309233</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333697</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1086.851075081664</v>
+        <v>1596.134059304633</v>
       </c>
       <c r="C11" t="n">
-        <v>756.7910231546152</v>
+        <v>1266.074007377583</v>
       </c>
       <c r="D11" t="n">
-        <v>437.4277895612271</v>
+        <v>1266.074007377583</v>
       </c>
       <c r="E11" t="n">
-        <v>437.4277895612271</v>
+        <v>1082.364994974094</v>
       </c>
       <c r="F11" t="n">
-        <v>437.4277895612271</v>
+        <v>710.2815551978488</v>
       </c>
       <c r="G11" t="n">
-        <v>61.03076311795253</v>
+        <v>333.8845287545742</v>
       </c>
       <c r="H11" t="n">
-        <v>61.03076311795253</v>
+        <v>72.87820664634944</v>
       </c>
       <c r="I11" t="n">
         <v>61.03076311795253</v>
       </c>
       <c r="J11" t="n">
-        <v>231.0235173512801</v>
+        <v>231.0235173512797</v>
       </c>
       <c r="K11" t="n">
-        <v>536.5371081174117</v>
+        <v>536.5371081174112</v>
       </c>
       <c r="L11" t="n">
-        <v>952.455494680411</v>
+        <v>952.4554946804114</v>
       </c>
       <c r="M11" t="n">
         <v>1446.914276069384</v>
       </c>
       <c r="N11" t="n">
-        <v>1953.987725860803</v>
+        <v>1953.987725860804</v>
       </c>
       <c r="O11" t="n">
         <v>2419.467544341229</v>
       </c>
       <c r="P11" t="n">
-        <v>2782.242799299106</v>
+        <v>2782.242799299105</v>
       </c>
       <c r="Q11" t="n">
-        <v>3006.499161029606</v>
+        <v>3006.499161029605</v>
       </c>
       <c r="R11" t="n">
-        <v>3051.538155897627</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="S11" t="n">
-        <v>3051.538155897627</v>
+        <v>2974.976248777109</v>
       </c>
       <c r="T11" t="n">
-        <v>2883.46899999731</v>
+        <v>2806.907092876792</v>
       </c>
       <c r="U11" t="n">
-        <v>2668.822824980381</v>
+        <v>2592.260917859861</v>
       </c>
       <c r="V11" t="n">
-        <v>2376.662402650173</v>
+        <v>2592.260917859861</v>
       </c>
       <c r="W11" t="n">
-        <v>2120.34861034259</v>
+        <v>2278.394727603109</v>
       </c>
       <c r="X11" t="n">
-        <v>1785.785317094873</v>
+        <v>1943.831434355392</v>
       </c>
       <c r="Y11" t="n">
-        <v>1434.548450132424</v>
+        <v>1943.831434355392</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>863.7347283521555</v>
+        <v>879.447442222871</v>
       </c>
       <c r="C12" t="n">
-        <v>728.1841640843909</v>
+        <v>704.994412941744</v>
       </c>
       <c r="D12" t="n">
-        <v>579.2497544231396</v>
+        <v>556.0600032804928</v>
       </c>
       <c r="E12" t="n">
-        <v>420.0122994176842</v>
+        <v>396.8225482750372</v>
       </c>
       <c r="F12" t="n">
-        <v>273.4777414445691</v>
+        <v>250.2879903019222</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9931634713179</v>
+        <v>113.8034123286709</v>
       </c>
       <c r="H12" t="n">
-        <v>84.22051426059947</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="I12" t="n">
         <v>61.03076311795253</v>
@@ -5148,22 +5148,22 @@
         <v>2244.158835045287</v>
       </c>
       <c r="T12" t="n">
-        <v>2087.222238102427</v>
+        <v>2089.928658931268</v>
       </c>
       <c r="U12" t="n">
-        <v>1859.14639927593</v>
+        <v>1900.755285118134</v>
       </c>
       <c r="V12" t="n">
-        <v>1623.994291044187</v>
+        <v>1704.505641899754</v>
       </c>
       <c r="W12" t="n">
-        <v>1369.756934315985</v>
+        <v>1463.274578213426</v>
       </c>
       <c r="X12" t="n">
-        <v>1200.807899123815</v>
+        <v>1255.423078007893</v>
       </c>
       <c r="Y12" t="n">
-        <v>993.047600358861</v>
+        <v>1047.662779242939</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>647.0407881840085</v>
+        <v>576.6371928113872</v>
       </c>
       <c r="C13" t="n">
-        <v>517.0070702694642</v>
+        <v>576.6371928113872</v>
       </c>
       <c r="D13" t="n">
-        <v>517.0070702694642</v>
+        <v>576.6371928113872</v>
       </c>
       <c r="E13" t="n">
-        <v>467.6265642423568</v>
+        <v>467.6265642423566</v>
       </c>
       <c r="F13" t="n">
-        <v>359.6390817578089</v>
+        <v>359.6390817578087</v>
       </c>
       <c r="G13" t="n">
-        <v>230.7368672341534</v>
+        <v>230.7368672341533</v>
       </c>
       <c r="H13" t="n">
-        <v>122.5166693955678</v>
+        <v>122.5166693955677</v>
       </c>
       <c r="I13" t="n">
         <v>61.03076311795253</v>
       </c>
       <c r="J13" t="n">
-        <v>137.2246935124984</v>
+        <v>137.2246935124986</v>
       </c>
       <c r="K13" t="n">
-        <v>367.7433504300773</v>
+        <v>367.7433504300775</v>
       </c>
       <c r="L13" t="n">
-        <v>707.5915025393374</v>
+        <v>707.5915025393375</v>
       </c>
       <c r="M13" t="n">
         <v>1074.230205114212</v>
@@ -5215,34 +5215,34 @@
         <v>1761.841614514367</v>
       </c>
       <c r="P13" t="n">
-        <v>2020.505100656695</v>
+        <v>2020.505100656696</v>
       </c>
       <c r="Q13" t="n">
-        <v>2127.885453984133</v>
+        <v>2127.885453984134</v>
       </c>
       <c r="R13" t="n">
-        <v>2072.378234105473</v>
+        <v>2072.378234105474</v>
       </c>
       <c r="S13" t="n">
-        <v>1917.819970747484</v>
+        <v>1917.819970747485</v>
       </c>
       <c r="T13" t="n">
         <v>1734.520673343861</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.314716414954</v>
+        <v>1484.314716414955</v>
       </c>
       <c r="V13" t="n">
-        <v>1268.532693222429</v>
+        <v>1268.53269322243</v>
       </c>
       <c r="W13" t="n">
-        <v>1018.017988198831</v>
+        <v>1018.017988198832</v>
       </c>
       <c r="X13" t="n">
-        <v>828.9309023141763</v>
+        <v>828.9309023141774</v>
       </c>
       <c r="Y13" t="n">
-        <v>647.0407881840085</v>
+        <v>719.3831926282644</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1486.457068849403</v>
+        <v>1704.174430379948</v>
       </c>
       <c r="C14" t="n">
-        <v>1156.397016922354</v>
+        <v>1374.114378452898</v>
       </c>
       <c r="D14" t="n">
-        <v>1156.397016922354</v>
+        <v>1374.114378452898</v>
       </c>
       <c r="E14" t="n">
-        <v>809.5112293374722</v>
+        <v>1027.228590868017</v>
       </c>
       <c r="F14" t="n">
-        <v>437.4277895612271</v>
+        <v>655.1451510917716</v>
       </c>
       <c r="G14" t="n">
-        <v>61.03076311795253</v>
+        <v>278.748124648497</v>
       </c>
       <c r="H14" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="I14" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J14" t="n">
-        <v>231.0235173512797</v>
+        <v>231.023517351279</v>
       </c>
       <c r="K14" t="n">
-        <v>536.5371081174112</v>
+        <v>536.5371081174108</v>
       </c>
       <c r="L14" t="n">
-        <v>952.4554946804114</v>
+        <v>952.4554946804101</v>
       </c>
       <c r="M14" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069383</v>
       </c>
       <c r="N14" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.987725860803</v>
       </c>
       <c r="O14" t="n">
-        <v>2419.467544341229</v>
+        <v>2419.467544341227</v>
       </c>
       <c r="P14" t="n">
-        <v>2782.242799299105</v>
+        <v>2782.242799299104</v>
       </c>
       <c r="Q14" t="n">
-        <v>3006.499161029605</v>
+        <v>3006.499161029604</v>
       </c>
       <c r="R14" t="n">
         <v>3051.538155897626</v>
       </c>
       <c r="S14" t="n">
-        <v>2980.184182340854</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="T14" t="n">
-        <v>2812.115026440537</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="U14" t="n">
-        <v>2812.115026440537</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="V14" t="n">
-        <v>2519.954604110329</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="W14" t="n">
-        <v>2519.954604110329</v>
+        <v>2737.671965640874</v>
       </c>
       <c r="X14" t="n">
-        <v>2185.391310862612</v>
+        <v>2403.108672393157</v>
       </c>
       <c r="Y14" t="n">
-        <v>1834.154443900163</v>
+        <v>2051.871805430707</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>840.5449772095086</v>
+        <v>863.7347283521553</v>
       </c>
       <c r="C15" t="n">
-        <v>666.0919479283816</v>
+        <v>689.2816990710284</v>
       </c>
       <c r="D15" t="n">
-        <v>517.1575382671303</v>
+        <v>540.3472894097771</v>
       </c>
       <c r="E15" t="n">
-        <v>357.9200832616748</v>
+        <v>381.1098344043216</v>
       </c>
       <c r="F15" t="n">
-        <v>211.3855252885598</v>
+        <v>273.4777414445691</v>
       </c>
       <c r="G15" t="n">
-        <v>113.803412328671</v>
+        <v>175.8956284846803</v>
       </c>
       <c r="H15" t="n">
-        <v>61.03076311795253</v>
+        <v>84.22051426059946</v>
       </c>
       <c r="I15" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J15" t="n">
         <v>143.4594360153768</v>
@@ -5379,28 +5379,28 @@
         <v>2375.85311851609</v>
       </c>
       <c r="R15" t="n">
-        <v>2368.166485196824</v>
+        <v>2375.85311851609</v>
       </c>
       <c r="S15" t="n">
-        <v>2236.472201726021</v>
+        <v>2280.354879229807</v>
       </c>
       <c r="T15" t="n">
-        <v>2064.032486959779</v>
+        <v>2126.124703115789</v>
       </c>
       <c r="U15" t="n">
-        <v>1874.859113146645</v>
+        <v>1936.951329302654</v>
       </c>
       <c r="V15" t="n">
-        <v>1639.707004914902</v>
+        <v>1701.799221070912</v>
       </c>
       <c r="W15" t="n">
-        <v>1385.469648186701</v>
+        <v>1447.56186434271</v>
       </c>
       <c r="X15" t="n">
-        <v>1177.618147981168</v>
+        <v>1239.710364137177</v>
       </c>
       <c r="Y15" t="n">
-        <v>1008.760314229577</v>
+        <v>1031.950065372223</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.8530517251204</v>
+        <v>720.076811559657</v>
       </c>
       <c r="C16" t="n">
-        <v>528.8193338105759</v>
+        <v>590.0430936451125</v>
       </c>
       <c r="D16" t="n">
-        <v>417.6051594116026</v>
+        <v>478.8289192461394</v>
       </c>
       <c r="E16" t="n">
-        <v>417.6051594116026</v>
+        <v>369.8182906771087</v>
       </c>
       <c r="F16" t="n">
-        <v>309.6176769270547</v>
+        <v>359.6390817578087</v>
       </c>
       <c r="G16" t="n">
-        <v>180.7154624033993</v>
+        <v>230.7368672341534</v>
       </c>
       <c r="H16" t="n">
-        <v>122.5166693955678</v>
+        <v>122.5166693955677</v>
       </c>
       <c r="I16" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J16" t="n">
-        <v>137.2246935124983</v>
+        <v>137.2246935124986</v>
       </c>
       <c r="K16" t="n">
-        <v>367.7433504300772</v>
+        <v>367.7433504300775</v>
       </c>
       <c r="L16" t="n">
-        <v>707.5915025393372</v>
+        <v>707.5915025393376</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.230205114211</v>
+        <v>1074.230205114212</v>
       </c>
       <c r="N16" t="n">
         <v>1438.492281136268</v>
@@ -5452,34 +5452,34 @@
         <v>1761.841614514367</v>
       </c>
       <c r="P16" t="n">
-        <v>2020.505100656695</v>
+        <v>2020.505100656696</v>
       </c>
       <c r="Q16" t="n">
-        <v>2127.885453984133</v>
+        <v>2127.885453984134</v>
       </c>
       <c r="R16" t="n">
-        <v>2072.378234105473</v>
+        <v>2072.378234105474</v>
       </c>
       <c r="S16" t="n">
-        <v>2072.378234105473</v>
+        <v>1917.819970747485</v>
       </c>
       <c r="T16" t="n">
-        <v>1889.07893670185</v>
+        <v>1734.520673343861</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.872979772943</v>
+        <v>1484.314716414955</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.090956580418</v>
+        <v>1484.314716414955</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.57625155682</v>
+        <v>1233.800011391357</v>
       </c>
       <c r="X16" t="n">
-        <v>983.4891656721652</v>
+        <v>1044.712925506702</v>
       </c>
       <c r="Y16" t="n">
-        <v>801.5990515419976</v>
+        <v>862.8228113765342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1708.212807188131</v>
+        <v>1539.188712835657</v>
       </c>
       <c r="C17" t="n">
-        <v>1437.921724821563</v>
+        <v>1268.897630469089</v>
       </c>
       <c r="D17" t="n">
-        <v>1178.327460788656</v>
+        <v>1009.303366436182</v>
       </c>
       <c r="E17" t="n">
-        <v>891.2106427642548</v>
+        <v>722.1865484117808</v>
       </c>
       <c r="F17" t="n">
         <v>578.8961725484905</v>
@@ -5543,22 +5543,22 @@
         <v>3034.74521833759</v>
       </c>
       <c r="T17" t="n">
-        <v>2926.445031997754</v>
+        <v>3034.74521833759</v>
       </c>
       <c r="U17" t="n">
-        <v>2771.567826541303</v>
+        <v>2879.868012881139</v>
       </c>
       <c r="V17" t="n">
-        <v>2539.176373771576</v>
+        <v>2647.476560111411</v>
       </c>
       <c r="W17" t="n">
-        <v>2285.079153075305</v>
+        <v>2393.379339415141</v>
       </c>
       <c r="X17" t="n">
-        <v>2010.284829388069</v>
+        <v>2118.585015727904</v>
       </c>
       <c r="Y17" t="n">
-        <v>1996.14121267841</v>
+        <v>1827.117118325936</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5396583788803</v>
+        <v>918.3499072362334</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0866290977533</v>
+        <v>743.8968779551064</v>
       </c>
       <c r="D18" t="n">
-        <v>618.152219436502</v>
+        <v>594.9624682938552</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9147644310466</v>
+        <v>435.7250132883997</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3802064579315</v>
+        <v>289.1904553152847</v>
       </c>
       <c r="G18" t="n">
-        <v>175.8956284846803</v>
+        <v>152.7058773420334</v>
       </c>
       <c r="H18" t="n">
-        <v>84.22051426059946</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="I18" t="n">
         <v>61.03076311795253</v>
@@ -5616,28 +5616,28 @@
         <v>2375.85311851609</v>
       </c>
       <c r="R18" t="n">
-        <v>2375.85311851609</v>
+        <v>2368.166485196825</v>
       </c>
       <c r="S18" t="n">
-        <v>2244.158835045288</v>
+        <v>2236.472201726022</v>
       </c>
       <c r="T18" t="n">
-        <v>2051.026193917907</v>
+        <v>2043.339560598641</v>
       </c>
       <c r="U18" t="n">
-        <v>1822.95035509141</v>
+        <v>1815.263721772144</v>
       </c>
       <c r="V18" t="n">
-        <v>1680.932716523793</v>
+        <v>1580.111613540401</v>
       </c>
       <c r="W18" t="n">
-        <v>1426.695359795592</v>
+        <v>1403.505608652945</v>
       </c>
       <c r="X18" t="n">
-        <v>1218.843859590059</v>
+        <v>1195.654108447412</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.754995398948</v>
+        <v>987.8938096824581</v>
       </c>
     </row>
     <row r="19">
@@ -5680,19 +5680,19 @@
         <v>583.5040416211784</v>
       </c>
       <c r="M19" t="n">
-        <v>823.8482183369898</v>
+        <v>828.0251592001429</v>
       </c>
       <c r="N19" t="n">
-        <v>1076.590321749256</v>
+        <v>1080.767262612409</v>
       </c>
       <c r="O19" t="n">
-        <v>1297.107972491359</v>
+        <v>1301.284913354512</v>
       </c>
       <c r="P19" t="n">
-        <v>1480.694528019014</v>
+        <v>1388.163595856343</v>
       </c>
       <c r="Q19" t="n">
-        <v>1485.257046592881</v>
+        <v>1489.433987456034</v>
       </c>
       <c r="R19" t="n">
         <v>1489.433987456034</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1708.212807188131</v>
+        <v>1708.212807188132</v>
       </c>
       <c r="C20" t="n">
         <v>1437.921724821563</v>
@@ -5735,10 +5735,10 @@
         <v>1178.327460788656</v>
       </c>
       <c r="E20" t="n">
-        <v>891.2106427642551</v>
+        <v>891.2106427642552</v>
       </c>
       <c r="F20" t="n">
-        <v>578.8961725484908</v>
+        <v>578.896172548491</v>
       </c>
       <c r="G20" t="n">
         <v>262.2681156656968</v>
@@ -5753,10 +5753,10 @@
         <v>231.0235173512797</v>
       </c>
       <c r="K20" t="n">
-        <v>536.5371081174121</v>
+        <v>536.5371081174114</v>
       </c>
       <c r="L20" t="n">
-        <v>952.4554946804114</v>
+        <v>952.4554946804108</v>
       </c>
       <c r="M20" t="n">
         <v>1446.914276069384</v>
@@ -5777,25 +5777,25 @@
         <v>3051.538155897626</v>
       </c>
       <c r="S20" t="n">
-        <v>3034.745218337589</v>
+        <v>3034.74521833759</v>
       </c>
       <c r="T20" t="n">
-        <v>2926.445031997754</v>
+        <v>2926.445031997755</v>
       </c>
       <c r="U20" t="n">
-        <v>2771.567826541303</v>
+        <v>2771.567826541304</v>
       </c>
       <c r="V20" t="n">
         <v>2539.176373771576</v>
       </c>
       <c r="W20" t="n">
-        <v>2285.079153075306</v>
+        <v>2285.079153075305</v>
       </c>
       <c r="X20" t="n">
-        <v>2285.079153075306</v>
+        <v>2010.284829388069</v>
       </c>
       <c r="Y20" t="n">
-        <v>1996.14121267841</v>
+        <v>1718.816931986101</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>749.7337541409099</v>
+        <v>819.6784726623902</v>
       </c>
       <c r="C21" t="n">
-        <v>575.2807248597829</v>
+        <v>645.2254433812632</v>
       </c>
       <c r="D21" t="n">
-        <v>426.3463151985317</v>
+        <v>496.2910337200119</v>
       </c>
       <c r="E21" t="n">
-        <v>267.1088601930762</v>
+        <v>337.0535787145564</v>
       </c>
       <c r="F21" t="n">
-        <v>120.5743022199611</v>
+        <v>190.5190207414413</v>
       </c>
       <c r="G21" t="n">
-        <v>61.03076311795253</v>
+        <v>152.7058773420334</v>
       </c>
       <c r="H21" t="n">
         <v>61.03076311795253</v>
@@ -5856,25 +5856,25 @@
         <v>2375.85311851609</v>
       </c>
       <c r="S21" t="n">
-        <v>2244.158835045287</v>
+        <v>2314.103553566767</v>
       </c>
       <c r="T21" t="n">
-        <v>2051.026193917906</v>
+        <v>2120.970912439386</v>
       </c>
       <c r="U21" t="n">
-        <v>1822.950355091409</v>
+        <v>1892.895073612889</v>
       </c>
       <c r="V21" t="n">
-        <v>1587.798246859666</v>
+        <v>1657.742965381146</v>
       </c>
       <c r="W21" t="n">
-        <v>1333.560890131465</v>
+        <v>1403.505608652945</v>
       </c>
       <c r="X21" t="n">
-        <v>1125.709389925932</v>
+        <v>1195.654108447412</v>
       </c>
       <c r="Y21" t="n">
-        <v>917.949091160978</v>
+        <v>987.8938096824581</v>
       </c>
     </row>
     <row r="22">
@@ -5914,16 +5914,16 @@
         <v>345.9262769718299</v>
       </c>
       <c r="L22" t="n">
-        <v>583.5040416211784</v>
+        <v>486.7961685953545</v>
       </c>
       <c r="M22" t="n">
-        <v>735.2898739361051</v>
+        <v>735.289873936105</v>
       </c>
       <c r="N22" t="n">
-        <v>979.8824487234325</v>
+        <v>988.0319773483711</v>
       </c>
       <c r="O22" t="n">
-        <v>1200.400099465535</v>
+        <v>1208.549628090474</v>
       </c>
       <c r="P22" t="n">
         <v>1383.98665499319</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C23" t="n">
         <v>1440.850850103805</v>
@@ -5972,10 +5972,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
@@ -5987,10 +5987,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6020,7 +6020,7 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V23" t="n">
         <v>2819.429779746128</v>
@@ -6029,7 +6029,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y23" t="n">
         <v>1999.070337960652</v>
@@ -6066,13 +6066,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E25" t="n">
         <v>231.3077836159871</v>
@@ -6142,25 +6142,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226756</v>
+        <v>67.83109325226755</v>
       </c>
       <c r="J25" t="n">
-        <v>155.2189959588264</v>
+        <v>79.653846789707</v>
       </c>
       <c r="K25" t="n">
-        <v>253.5298502264967</v>
+        <v>177.9647010573774</v>
       </c>
       <c r="L25" t="n">
-        <v>505.9475671746778</v>
+        <v>409.2396941488544</v>
       </c>
       <c r="M25" t="n">
-        <v>673.3800484738756</v>
+        <v>673.3800484738761</v>
       </c>
       <c r="N25" t="n">
-        <v>941.3967585295469</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.02298077356</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P25" t="n">
         <v>1371.681856552143</v>
@@ -6172,7 +6172,7 @@
         <v>1489.975538818985</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T25" t="n">
         <v>1273.865908363024</v>
@@ -6181,16 +6181,16 @@
         <v>1083.434476062511</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W25" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C26" t="n">
-        <v>1646.478165174435</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D26" t="n">
-        <v>1347.981436128165</v>
+        <v>1347.981436128166</v>
       </c>
       <c r="E26" t="n">
         <v>1021.962153090402</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612753</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667532</v>
+        <v>315.4417372667533</v>
       </c>
       <c r="H26" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703192</v>
+        <v>95.04551302703169</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522847</v>
+        <v>342.5042110522843</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083586</v>
+        <v>734.9031518083581</v>
       </c>
       <c r="L26" t="n">
-        <v>1244.516932122995</v>
+        <v>1244.516932122994</v>
       </c>
       <c r="M26" t="n">
-        <v>1836.628403861147</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.986787986157</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O26" t="n">
-        <v>3003.538825931721</v>
+        <v>3003.53882593172</v>
       </c>
       <c r="P26" t="n">
-        <v>3456.892759355127</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q26" t="n">
-        <v>3763.758688177036</v>
+        <v>3763.758688177034</v>
       </c>
       <c r="R26" t="n">
         <v>3881.355321800064</v>
       </c>
       <c r="S26" t="n">
-        <v>3830.833622887639</v>
+        <v>3830.83362288764</v>
       </c>
       <c r="T26" t="n">
-        <v>3684.624844832342</v>
+        <v>3684.624844832343</v>
       </c>
       <c r="U26" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V26" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W26" t="n">
-        <v>2926.569734173936</v>
+        <v>2926.569734173937</v>
       </c>
       <c r="X26" t="n">
-        <v>2612.872945473337</v>
+        <v>2612.872945473338</v>
       </c>
       <c r="Y26" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>952.6588444849262</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2058152037993</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D27" t="n">
-        <v>629.2714055425481</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E27" t="n">
-        <v>470.0339505370926</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F27" t="n">
-        <v>323.4993925639776</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G27" t="n">
-        <v>187.1362923965963</v>
+        <v>187.1362923965958</v>
       </c>
       <c r="H27" t="n">
-        <v>96.6343980344637</v>
+        <v>96.63439803446332</v>
       </c>
       <c r="I27" t="n">
         <v>77.62710643600128</v>
@@ -6306,16 +6306,16 @@
         <v>171.3043759266186</v>
       </c>
       <c r="K27" t="n">
-        <v>409.5685749069659</v>
+        <v>409.5685749069658</v>
       </c>
       <c r="L27" t="n">
-        <v>776.266735219631</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M27" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.066103996401</v>
+        <v>1697.066103996402</v>
       </c>
       <c r="O27" t="n">
         <v>2108.027383414456</v>
@@ -6348,7 +6348,7 @@
         <v>1328.634480269948</v>
       </c>
       <c r="Y27" t="n">
-        <v>1120.874181504994</v>
+        <v>1120.874181504995</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222592</v>
+        <v>684.3458835222597</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548332</v>
+        <v>575.1786701548335</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029783</v>
+        <v>484.8310003029786</v>
       </c>
       <c r="E28" t="n">
-        <v>396.6868762810661</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F28" t="n">
-        <v>309.5658983436366</v>
+        <v>309.5658983436367</v>
       </c>
       <c r="G28" t="n">
-        <v>201.6320312788364</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H28" t="n">
         <v>115.1838140571751</v>
@@ -6382,37 +6382,37 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J28" t="n">
-        <v>181.3293059491642</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K28" t="n">
-        <v>443.8960559642679</v>
+        <v>338.2197272830617</v>
       </c>
       <c r="L28" t="n">
-        <v>819.0354214789913</v>
+        <v>713.3590927977851</v>
       </c>
       <c r="M28" t="n">
-        <v>1045.047469844417</v>
+        <v>1116.095705463561</v>
       </c>
       <c r="N28" t="n">
-        <v>1328.057137607773</v>
+        <v>1516.083649235653</v>
       </c>
       <c r="O28" t="n">
-        <v>1685.966303594414</v>
+        <v>1873.992815222294</v>
       </c>
       <c r="P28" t="n">
-        <v>1977.1533710943</v>
+        <v>2031.52338504128</v>
       </c>
       <c r="Q28" t="n">
-        <v>2113.343234313042</v>
+        <v>2113.343234313043</v>
       </c>
       <c r="R28" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T28" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U28" t="n">
         <v>1560.03328883449</v>
@@ -6424,10 +6424,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750674</v>
+        <v>967.2489883750678</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920181</v>
+        <v>806.2253787920185</v>
       </c>
     </row>
     <row r="29">
@@ -6440,43 +6440,43 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.478165174435</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D29" t="n">
-        <v>1347.981436128165</v>
+        <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
         <v>1021.962153090402</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667532</v>
+        <v>315.4417372667533</v>
       </c>
       <c r="H29" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703203</v>
+        <v>95.04551302703186</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522847</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083585</v>
+        <v>734.9031518083584</v>
       </c>
       <c r="L29" t="n">
         <v>1244.516932122995</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.628403861146</v>
+        <v>1836.628403861145</v>
       </c>
       <c r="N29" t="n">
         <v>2441.986787986155</v>
       </c>
       <c r="O29" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931719</v>
       </c>
       <c r="P29" t="n">
         <v>3456.892759355125</v>
@@ -6494,19 +6494,19 @@
         <v>3684.624844832343</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W29" t="n">
         <v>2926.569734173937</v>
       </c>
       <c r="X29" t="n">
-        <v>2612.872945473337</v>
+        <v>2612.872945473338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849262</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037993</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425481</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370926</v>
       </c>
       <c r="F30" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639776</v>
       </c>
       <c r="G30" t="n">
-        <v>187.1362923965958</v>
+        <v>187.1362923965962</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446369</v>
       </c>
       <c r="I30" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266184</v>
       </c>
       <c r="K30" t="n">
         <v>409.5685749069658</v>
       </c>
       <c r="L30" t="n">
-        <v>776.2667352196311</v>
+        <v>776.2667352196308</v>
       </c>
       <c r="M30" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.066103996402</v>
+        <v>1697.066103996401</v>
       </c>
       <c r="O30" t="n">
         <v>2108.027383414456</v>
@@ -6585,7 +6585,7 @@
         <v>1328.634480269948</v>
       </c>
       <c r="Y30" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222592</v>
+        <v>684.3458835222597</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548332</v>
+        <v>575.1786701548335</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029783</v>
+        <v>484.8310003029786</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810661</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436366</v>
+        <v>309.5658983436367</v>
       </c>
       <c r="G31" t="n">
-        <v>201.6320312788364</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H31" t="n">
         <v>115.1838140571751</v>
@@ -6619,37 +6619,37 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J31" t="n">
-        <v>148.029427039668</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K31" t="n">
-        <v>410.5961770547717</v>
+        <v>443.8960559642678</v>
       </c>
       <c r="L31" t="n">
-        <v>766.7466742642299</v>
+        <v>658.1854669528523</v>
       </c>
       <c r="M31" t="n">
-        <v>992.758722629655</v>
+        <v>1060.922079618629</v>
       </c>
       <c r="N31" t="n">
-        <v>1392.746666401747</v>
+        <v>1460.910023390721</v>
       </c>
       <c r="O31" t="n">
-        <v>1750.655832388388</v>
+        <v>1818.819189377361</v>
       </c>
       <c r="P31" t="n">
-        <v>2041.842899888274</v>
+        <v>1977.153371094302</v>
       </c>
       <c r="Q31" t="n">
-        <v>2113.343234313042</v>
+        <v>2113.343234313043</v>
       </c>
       <c r="R31" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U31" t="n">
         <v>1560.03328883449</v>
@@ -6661,10 +6661,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750674</v>
+        <v>967.2489883750678</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920181</v>
+        <v>806.2253787920185</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554367</v>
       </c>
       <c r="C32" t="n">
         <v>1646.478165174436</v>
@@ -6686,28 +6686,28 @@
         <v>1021.962153090403</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612762</v>
       </c>
       <c r="G32" t="n">
-        <v>315.4417372667532</v>
+        <v>315.4417372667535</v>
       </c>
       <c r="H32" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703192</v>
+        <v>95.0455130270318</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522846</v>
+        <v>342.5042110522845</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083584</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L32" t="n">
-        <v>1244.516932122995</v>
+        <v>1244.516932122994</v>
       </c>
       <c r="M32" t="n">
-        <v>1836.628403861145</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N32" t="n">
         <v>2441.986787986155</v>
@@ -6737,10 +6737,10 @@
         <v>3219.569419883571</v>
       </c>
       <c r="W32" t="n">
-        <v>2926.569734173938</v>
+        <v>2926.569734173937</v>
       </c>
       <c r="X32" t="n">
-        <v>2612.872945473339</v>
+        <v>2612.872945473338</v>
       </c>
       <c r="Y32" t="n">
         <v>2282.502583058008</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849265</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037995</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425482</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370927</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F33" t="n">
         <v>323.4993925639777</v>
@@ -6771,7 +6771,7 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446332</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600128</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.345883522259</v>
+        <v>684.3458835222593</v>
       </c>
       <c r="C34" t="n">
-        <v>575.178670154833</v>
+        <v>575.1786701548333</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029782</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E34" t="n">
-        <v>396.686876281066</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5658983436365</v>
+        <v>309.5658983436367</v>
       </c>
       <c r="G34" t="n">
-        <v>201.6320312788363</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H34" t="n">
-        <v>115.183814057175</v>
+        <v>115.1838140571751</v>
       </c>
       <c r="I34" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J34" t="n">
-        <v>181.3293059491642</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K34" t="n">
-        <v>443.8960559642678</v>
+        <v>443.8960559642677</v>
       </c>
       <c r="L34" t="n">
-        <v>819.0354214789913</v>
+        <v>819.0354214789911</v>
       </c>
       <c r="M34" t="n">
-        <v>1089.480443537904</v>
+        <v>1045.047469844416</v>
       </c>
       <c r="N34" t="n">
-        <v>1489.468387309996</v>
+        <v>1328.057137607773</v>
       </c>
       <c r="O34" t="n">
-        <v>1685.966303594413</v>
+        <v>1685.966303594414</v>
       </c>
       <c r="P34" t="n">
-        <v>1977.1533710943</v>
+        <v>1977.153371094301</v>
       </c>
       <c r="Q34" t="n">
-        <v>2113.343234313042</v>
+        <v>2113.343234313043</v>
       </c>
       <c r="R34" t="n">
-        <v>2083.28174663105</v>
+        <v>2083.281746631051</v>
       </c>
       <c r="S34" t="n">
         <v>1951.364832018358</v>
@@ -6889,19 +6889,19 @@
         <v>1789.367186148365</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.033288834489</v>
+        <v>1560.03328883449</v>
       </c>
       <c r="V34" t="n">
-        <v>1365.117770189083</v>
+        <v>1365.117770189084</v>
       </c>
       <c r="W34" t="n">
         <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.248988375067</v>
+        <v>967.2489883750675</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920178</v>
+        <v>806.2253787920182</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,64 +6920,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218332</v>
+        <v>66.51211643218195</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170926</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226758</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155309</v>
+        <v>163.8840378413014</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090251</v>
+        <v>262.1948921089718</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572062</v>
+        <v>514.612609057153</v>
       </c>
       <c r="M37" t="n">
-        <v>887.9385183822279</v>
+        <v>682.0450903563508</v>
       </c>
       <c r="N37" t="n">
-        <v>1155.955228437899</v>
+        <v>950.0618004120222</v>
       </c>
       <c r="O37" t="n">
-        <v>1378.103768707685</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460443</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673496</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218423</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912097</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170926</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>370.061470288941</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L40" t="n">
-        <v>602.6554402005012</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M40" t="n">
-        <v>866.7957945255229</v>
+        <v>789.9116685363202</v>
       </c>
       <c r="N40" t="n">
-        <v>1038.10463155537</v>
+        <v>961.2205055661677</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799384</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552143</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673496</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218195</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170926</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>370.061470288941</v>
+        <v>370.0614702889412</v>
       </c>
       <c r="L43" t="n">
-        <v>622.4791872371221</v>
+        <v>622.4791872371225</v>
       </c>
       <c r="M43" t="n">
-        <v>886.6195415621438</v>
+        <v>886.6195415621443</v>
       </c>
       <c r="N43" t="n">
-        <v>1143.477546463671</v>
+        <v>1154.636251617816</v>
       </c>
       <c r="O43" t="n">
-        <v>1378.103768707685</v>
+        <v>1292.554600836006</v>
       </c>
       <c r="P43" t="n">
-        <v>1477.054771460443</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673496</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464961</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,13 +7673,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746127</v>
@@ -7688,10 +7688,10 @@
         <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170926</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7807,49 +7807,49 @@
         <v>175.0427429954468</v>
       </c>
       <c r="K46" t="n">
-        <v>370.061470288941</v>
+        <v>370.0614702889412</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371221</v>
+        <v>622.4791872371225</v>
       </c>
       <c r="M46" t="n">
-        <v>789.9116685363199</v>
+        <v>866.7957945255215</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.928378591991</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O46" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304669</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673496</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431757</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -10033,25 +10033,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>53.65784208816297</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>10.4237523707026</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10267,16 +10267,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>143.294026485731</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10285,10 +10285,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0.811729189852656</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10513,13 +10513,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>44.88179160958359</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>53.65784208816419</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.1696012574541</v>
       </c>
       <c r="E11" t="n">
-        <v>343.416929709033</v>
+        <v>161.5450074295782</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784826</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>258.3962588871429</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.72896909311299</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.79628804931221</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
-        <v>56.97687396967763</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>347.7244982928247</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187085</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.733380735399</v>
       </c>
       <c r="D13" t="n">
         <v>110.1020326549835</v>
       </c>
       <c r="E13" t="n">
-        <v>59.033821316504</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>71.61898039981206</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>258.3962588871429</v>
+        <v>42.85607097190383</v>
       </c>
       <c r="I14" t="n">
-        <v>11.728969093113</v>
+        <v>11.72896909311294</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.155854228107692</v>
+        <v>75.79628804931215</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>166.3884643413132</v>
       </c>
       <c r="U14" t="n">
         <v>212.4997132667625</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541842</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833403</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>96.83019082959532</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>49.52119078244635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0126807244091</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>167.3338534089478</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>107.2171844764372</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.5510378853863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>274.5510378853863</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503642</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.504657435021722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>975081.4697490422</v>
+        <v>975081.4697490424</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>975081.4697490421</v>
+        <v>975081.4697490419</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1098246.958916884</v>
+        <v>1098246.958916885</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1098246.958916884</v>
+        <v>1098246.958916885</v>
       </c>
     </row>
     <row r="13">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348192.4439547412</v>
+        <v>348192.4439547413</v>
       </c>
       <c r="C2" t="n">
         <v>348192.4439547413</v>
       </c>
       <c r="D2" t="n">
-        <v>348219.6259950462</v>
+        <v>348219.6259950461</v>
       </c>
       <c r="E2" t="n">
         <v>308066.5631699752</v>
       </c>
       <c r="F2" t="n">
-        <v>308066.5631699752</v>
+        <v>308066.5631699753</v>
       </c>
       <c r="G2" t="n">
         <v>339654.6905806583</v>
@@ -26335,22 +26335,22 @@
         <v>348942.7521923213</v>
       </c>
       <c r="J2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="K2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923209</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923211</v>
+        <v>348942.7521923212</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923211</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923211</v>
+        <v>348942.7521923212</v>
       </c>
       <c r="P2" t="n">
         <v>348942.7521923211</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171169.7048931371</v>
+        <v>171169.7048931376</v>
       </c>
       <c r="E3" t="n">
-        <v>928626.9828614055</v>
+        <v>928626.982861405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190102</v>
+        <v>47337.02389190097</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>60307.60726530867</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698646</v>
+        <v>36352.13055698649</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190087</v>
+        <v>47337.02389190081</v>
       </c>
       <c r="M3" t="n">
-        <v>186300.8813297682</v>
+        <v>186300.8813297683</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>397952.3823424636</v>
+        <v>397952.3823424634</v>
       </c>
       <c r="E4" t="n">
-        <v>58911.24292805708</v>
+        <v>58911.24292805712</v>
       </c>
       <c r="F4" t="n">
-        <v>58911.24292805706</v>
+        <v>58911.24292805712</v>
       </c>
       <c r="G4" t="n">
         <v>100421.2759989386</v>
@@ -26436,28 +26436,28 @@
         <v>100421.2759989386</v>
       </c>
       <c r="I4" t="n">
+        <v>93774.13782657692</v>
+      </c>
+      <c r="J4" t="n">
+        <v>95033.13778715176</v>
+      </c>
+      <c r="K4" t="n">
+        <v>95033.1377871517</v>
+      </c>
+      <c r="L4" t="n">
+        <v>95033.13778715178</v>
+      </c>
+      <c r="M4" t="n">
         <v>93774.13782657695</v>
       </c>
-      <c r="J4" t="n">
-        <v>95033.13778715167</v>
-      </c>
-      <c r="K4" t="n">
-        <v>95033.13778715181</v>
-      </c>
-      <c r="L4" t="n">
-        <v>95033.13778715179</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93774.13782657699</v>
-      </c>
       <c r="N4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37984.72116648068</v>
+        <v>37984.7211664807</v>
       </c>
       <c r="E5" t="n">
         <v>72159.42212422501</v>
@@ -26494,19 +26494,19 @@
         <v>87728.20329125514</v>
       </c>
       <c r="K5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="L5" t="n">
         <v>87728.20329125514</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624987</v>
-      </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153051.11597699</v>
+        <v>-153055.529554858</v>
       </c>
       <c r="C6" t="n">
-        <v>-153051.1159769899</v>
+        <v>-153055.529554858</v>
       </c>
       <c r="D6" t="n">
-        <v>-258887.1824070352</v>
+        <v>-258891.4360905489</v>
       </c>
       <c r="E6" t="n">
-        <v>-751631.0847437123</v>
+        <v>-751871.5329144315</v>
       </c>
       <c r="F6" t="n">
-        <v>176995.8981176931</v>
+        <v>176755.4499469735</v>
       </c>
       <c r="G6" t="n">
-        <v>114762.4982386334</v>
+        <v>114707.8625820943</v>
       </c>
       <c r="H6" t="n">
-        <v>162099.5221305346</v>
+        <v>162044.8864739954</v>
       </c>
       <c r="I6" t="n">
-        <v>112342.4097941858</v>
+        <v>112342.4097941859</v>
       </c>
       <c r="J6" t="n">
-        <v>129829.2805569275</v>
+        <v>129829.2805569273</v>
       </c>
       <c r="K6" t="n">
-        <v>166181.4111139138</v>
+        <v>166181.411113914</v>
       </c>
       <c r="L6" t="n">
         <v>118844.3872220129</v>
       </c>
       <c r="M6" t="n">
-        <v>-13650.86427027403</v>
+        <v>-13650.86427027383</v>
       </c>
       <c r="N6" t="n">
-        <v>172650.0170594942</v>
+        <v>172650.0170594943</v>
       </c>
       <c r="O6" t="n">
-        <v>172650.0170594942</v>
+        <v>172650.0170594944</v>
       </c>
       <c r="P6" t="n">
         <v>172650.0170594942</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="G2" t="n">
         <v>97.68472022810488</v>
@@ -26704,28 +26704,28 @@
         <v>97.68472022810488</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.8679434165451</v>
+        <v>199.8679434165457</v>
       </c>
       <c r="E3" t="n">
         <v>1033.864942049762</v>
@@ -26759,10 +26759,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="K3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26799,7 +26799,7 @@
         <v>762.8845389744066</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8845389744066</v>
+        <v>762.8845389744064</v>
       </c>
       <c r="G4" t="n">
         <v>762.8845389744066</v>
@@ -26811,7 +26811,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>970.338830450016</v>
+        <v>970.3388304500161</v>
       </c>
       <c r="K4" t="n">
         <v>970.3388304500161</v>
@@ -26820,16 +26820,16 @@
         <v>970.3388304500161</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.171279864876</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322885</v>
+        <v>38.513440363229</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.8679434165451</v>
+        <v>199.8679434165457</v>
       </c>
       <c r="E3" t="n">
-        <v>833.9969986332164</v>
+        <v>833.9969986332159</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>68.51691642788626</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477231</v>
+        <v>138.9373750477232</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.9471639266833</v>
+        <v>623.9471639266829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.171279864876</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,40 +27871,40 @@
         <v>331.2460681438488</v>
       </c>
       <c r="I8" t="n">
-        <v>179.4993714254155</v>
+        <v>179.4993714254154</v>
       </c>
       <c r="J8" t="n">
-        <v>112.8507613606561</v>
+        <v>112.8507613606559</v>
       </c>
       <c r="K8" t="n">
-        <v>117.8830092062977</v>
+        <v>117.8830092062974</v>
       </c>
       <c r="L8" t="n">
-        <v>108.9697899219211</v>
+        <v>108.9697899219207</v>
       </c>
       <c r="M8" t="n">
-        <v>89.26055676721072</v>
+        <v>89.26055676721032</v>
       </c>
       <c r="N8" t="n">
-        <v>86.04447339087156</v>
+        <v>86.04447339087116</v>
       </c>
       <c r="O8" t="n">
-        <v>94.71931714500565</v>
+        <v>94.71931714500525</v>
       </c>
       <c r="P8" t="n">
-        <v>115.690241591537</v>
+        <v>115.6902415915367</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.5378933935513</v>
+        <v>135.537893393551</v>
       </c>
       <c r="R8" t="n">
-        <v>165.1133581130686</v>
+        <v>165.1133581130684</v>
       </c>
       <c r="S8" t="n">
-        <v>190.7105589908503</v>
+        <v>190.7105589908502</v>
       </c>
       <c r="T8" t="n">
-        <v>219.5785755046101</v>
+        <v>219.57857550461</v>
       </c>
       <c r="U8" t="n">
         <v>251.2813737702553</v>
@@ -27944,43 +27944,43 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.9136125302015</v>
+        <v>136.9136125302014</v>
       </c>
       <c r="H9" t="n">
         <v>108.0834705440131</v>
       </c>
       <c r="I9" t="n">
-        <v>84.72083890735962</v>
+        <v>84.72083890735958</v>
       </c>
       <c r="J9" t="n">
-        <v>86.22106658047991</v>
+        <v>86.2210665804798</v>
       </c>
       <c r="K9" t="n">
-        <v>68.42126847655764</v>
+        <v>68.42126847655744</v>
       </c>
       <c r="L9" t="n">
-        <v>45.21039356443958</v>
+        <v>45.21039356443931</v>
       </c>
       <c r="M9" t="n">
-        <v>33.20600476000124</v>
+        <v>33.20600476000092</v>
       </c>
       <c r="N9" t="n">
-        <v>19.53068211486433</v>
+        <v>19.53068211486402</v>
       </c>
       <c r="O9" t="n">
-        <v>40.31099608107345</v>
+        <v>40.31099608107317</v>
       </c>
       <c r="P9" t="n">
-        <v>51.88147797593832</v>
+        <v>51.8814779759381</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.10482479172784</v>
+        <v>85.10482479172768</v>
       </c>
       <c r="R9" t="n">
         <v>118.9877057846751</v>
       </c>
       <c r="S9" t="n">
-        <v>163.6978811003561</v>
+        <v>163.697881100356</v>
       </c>
       <c r="T9" t="n">
         <v>198.4319113363329</v>
@@ -28032,28 +28032,28 @@
         <v>144.6117346514889</v>
       </c>
       <c r="J10" t="n">
-        <v>101.5138969156179</v>
+        <v>101.5138969156178</v>
       </c>
       <c r="K10" t="n">
-        <v>87.1392857629379</v>
+        <v>87.13928576293779</v>
       </c>
       <c r="L10" t="n">
-        <v>81.30040830362879</v>
+        <v>81.30040830362864</v>
       </c>
       <c r="M10" t="n">
-        <v>82.42868643397412</v>
+        <v>82.42868643397397</v>
       </c>
       <c r="N10" t="n">
-        <v>72.53182165325441</v>
+        <v>72.53182165325424</v>
       </c>
       <c r="O10" t="n">
-        <v>87.51314854626173</v>
+        <v>87.51314854626159</v>
       </c>
       <c r="P10" t="n">
-        <v>94.13713324236539</v>
+        <v>94.13713324236528</v>
       </c>
       <c r="Q10" t="n">
-        <v>121.3249421735475</v>
+        <v>121.3249421735474</v>
       </c>
       <c r="R10" t="n">
         <v>161.0877053421165</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322882</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322882</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.95785363122047</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,19 +28220,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>35.8340837426758</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>12.87623011145504</v>
       </c>
       <c r="X12" t="n">
-        <v>38.51344036322882</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
     </row>
     <row r="15">
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="G15" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="H15" t="n">
-        <v>38.51344036322882</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.95785363122047</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,16 +28451,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.609766986073083</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>35.83408374267529</v>
       </c>
       <c r="T15" t="n">
-        <v>20.48599709752793</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="U15" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>38.51344036322882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322888</v>
       </c>
     </row>
     <row r="17">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.95785363122046</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.609766986073055</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>92.20312496748485</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>76.85503832233769</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28752,7 +28752,7 @@
         <v>97.68472022810488</v>
       </c>
       <c r="M19" t="n">
-        <v>89.45287313220672</v>
+        <v>93.67200531720982</v>
       </c>
       <c r="N19" t="n">
         <v>97.68472022810488</v>
@@ -28761,13 +28761,13 @@
         <v>97.68472022810488</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>97.68472022810488</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>97.68472022810488</v>
+        <v>93.46558804310195</v>
       </c>
       <c r="S19" t="n">
         <v>97.68472022810488</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>76.17162848253018</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H21" t="n">
-        <v>90.75836308184009</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>22.95785363122047</v>
@@ -28928,7 +28928,7 @@
         <v>7.609766986073083</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>69.24527133626523</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28986,19 +28986,19 @@
         <v>97.68472022810488</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>97.68472022810488</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
-        <v>89.45287313220723</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O22" t="n">
         <v>97.68472022810488</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810488</v>
+        <v>89.45287313220706</v>
       </c>
       <c r="Q22" t="n">
         <v>97.68472022810488</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="24">
@@ -29165,7 +29165,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J25" t="n">
-        <v>76.32843350416094</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350416138</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487586</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487378</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.1712798648748</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487492</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487602</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.5769297729245</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810492</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810492</v>
+        <v>86.41330088048338</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O37" t="n">
-        <v>85.08100106221804</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R37" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L40" t="n">
-        <v>77.66073332242718</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810492</v>
+        <v>86.41330088048316</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810492</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292453</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N43" t="n">
-        <v>86.41330088048466</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.41330088048294</v>
       </c>
       <c r="R43" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>77.6607333224255</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>86.4133008804846</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.803489219765005</v>
+        <v>0.8034892197650072</v>
       </c>
       <c r="H8" t="n">
-        <v>8.228733971918359</v>
+        <v>8.228733971918382</v>
       </c>
       <c r="I8" t="n">
-        <v>30.97651814499038</v>
+        <v>30.97651814499047</v>
       </c>
       <c r="J8" t="n">
-        <v>68.19514316603015</v>
+        <v>68.19514316603035</v>
       </c>
       <c r="K8" t="n">
-        <v>102.2068418386828</v>
+        <v>102.2068418386831</v>
       </c>
       <c r="L8" t="n">
-        <v>126.7966250480661</v>
+        <v>126.7966250480665</v>
       </c>
       <c r="M8" t="n">
-        <v>141.085676460062</v>
+        <v>141.0856764600624</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3685902057194</v>
+        <v>143.3685902057198</v>
       </c>
       <c r="O8" t="n">
-        <v>135.3788942766811</v>
+        <v>135.3788942766815</v>
       </c>
       <c r="P8" t="n">
-        <v>115.5427541637325</v>
+        <v>115.5427541637328</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.76779648089824</v>
+        <v>86.76779648089848</v>
       </c>
       <c r="R8" t="n">
-        <v>50.47217970106354</v>
+        <v>50.47217970106368</v>
       </c>
       <c r="S8" t="n">
-        <v>18.30951059539507</v>
+        <v>18.30951059539512</v>
       </c>
       <c r="T8" t="n">
-        <v>3.517274059521311</v>
+        <v>3.517274059521321</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06427913758120038</v>
+        <v>0.06427913758120056</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4299046330091726</v>
+        <v>0.4299046330091738</v>
       </c>
       <c r="H9" t="n">
-        <v>4.151973692483325</v>
+        <v>4.151973692483337</v>
       </c>
       <c r="I9" t="n">
-        <v>14.80154109264037</v>
+        <v>14.80154109264041</v>
       </c>
       <c r="J9" t="n">
-        <v>40.61656008618679</v>
+        <v>40.6165600861869</v>
       </c>
       <c r="K9" t="n">
-        <v>69.42017049780135</v>
+        <v>69.42017049780155</v>
       </c>
       <c r="L9" t="n">
-        <v>93.3439862154346</v>
+        <v>93.34398621543487</v>
       </c>
       <c r="M9" t="n">
-        <v>108.9280291620171</v>
+        <v>108.9280291620174</v>
       </c>
       <c r="N9" t="n">
-        <v>111.811029968469</v>
+        <v>111.8110299684693</v>
       </c>
       <c r="O9" t="n">
-        <v>102.285248363371</v>
+        <v>102.2852483633713</v>
       </c>
       <c r="P9" t="n">
-        <v>82.09292943839192</v>
+        <v>82.09292943839215</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.87694929429368</v>
+        <v>54.87694929429384</v>
       </c>
       <c r="R9" t="n">
-        <v>26.69179817928881</v>
+        <v>26.69179817928889</v>
       </c>
       <c r="S9" t="n">
-        <v>7.985290003481775</v>
+        <v>7.985290003481797</v>
       </c>
       <c r="T9" t="n">
-        <v>1.732817358488726</v>
+        <v>1.732817358488731</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02828319954007716</v>
+        <v>0.02828319954007723</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3604176028822945</v>
+        <v>0.3604176028822955</v>
       </c>
       <c r="H10" t="n">
-        <v>3.204440141989857</v>
+        <v>3.204440141989866</v>
       </c>
       <c r="I10" t="n">
-        <v>10.83874027576937</v>
+        <v>10.8387402757694</v>
       </c>
       <c r="J10" t="n">
-        <v>25.48152452377822</v>
+        <v>25.48152452377829</v>
       </c>
       <c r="K10" t="n">
-        <v>41.87397240759748</v>
+        <v>41.87397240759759</v>
       </c>
       <c r="L10" t="n">
-        <v>53.5842679776095</v>
+        <v>53.58426797760965</v>
       </c>
       <c r="M10" t="n">
-        <v>56.49709751363093</v>
+        <v>56.49709751363109</v>
       </c>
       <c r="N10" t="n">
-        <v>55.15372281197879</v>
+        <v>55.15372281197894</v>
       </c>
       <c r="O10" t="n">
-        <v>50.94338990558106</v>
+        <v>50.94338990558121</v>
       </c>
       <c r="P10" t="n">
-        <v>43.59087080678221</v>
+        <v>43.59087080678234</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.18005945589831</v>
+        <v>30.1800594558984</v>
       </c>
       <c r="R10" t="n">
-        <v>16.20568603505298</v>
+        <v>16.20568603505303</v>
       </c>
       <c r="S10" t="n">
-        <v>6.281095861139621</v>
+        <v>6.281095861139638</v>
       </c>
       <c r="T10" t="n">
-        <v>1.539966121406167</v>
+        <v>1.539966121406171</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0196591419753979</v>
+        <v>0.01965914197539796</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>76.96356605509695</v>
+        <v>76.963566055097</v>
       </c>
       <c r="K13" t="n">
-        <v>232.8471281995746</v>
+        <v>232.8471281995747</v>
       </c>
       <c r="L13" t="n">
-        <v>343.2809617265253</v>
+        <v>343.2809617265254</v>
       </c>
       <c r="M13" t="n">
         <v>370.3421238130044</v>
@@ -35583,10 +35583,10 @@
         <v>326.6154882607062</v>
       </c>
       <c r="P13" t="n">
-        <v>261.2762486286144</v>
+        <v>261.2762486286146</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.4650033610484</v>
+        <v>108.4650033610485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>76.96356605509695</v>
+        <v>76.963566055097</v>
       </c>
       <c r="K16" t="n">
-        <v>232.8471281995746</v>
+        <v>232.8471281995747</v>
       </c>
       <c r="L16" t="n">
-        <v>343.2809617265253</v>
+        <v>343.2809617265254</v>
       </c>
       <c r="M16" t="n">
         <v>370.3421238130044</v>
@@ -35820,10 +35820,10 @@
         <v>326.6154882607062</v>
       </c>
       <c r="P16" t="n">
-        <v>261.2762486286144</v>
+        <v>261.2762486286146</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.4650033610484</v>
+        <v>108.4650033610485</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>239.977540049847</v>
       </c>
       <c r="M19" t="n">
-        <v>242.7718956725367</v>
+        <v>246.9910278575398</v>
       </c>
       <c r="N19" t="n">
         <v>255.295053951784</v>
@@ -36057,13 +36057,13 @@
         <v>222.7451017596998</v>
       </c>
       <c r="P19" t="n">
-        <v>185.4409651794494</v>
+        <v>87.75624495134457</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.608604620068178</v>
+        <v>102.2933248481731</v>
       </c>
       <c r="R19" t="n">
-        <v>4.219132185002934</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36282,19 +36282,19 @@
         <v>185.2746417197982</v>
       </c>
       <c r="L22" t="n">
-        <v>239.9775400498469</v>
+        <v>142.2928198217421</v>
       </c>
       <c r="M22" t="n">
-        <v>153.3190225403299</v>
+        <v>251.0037427684348</v>
       </c>
       <c r="N22" t="n">
-        <v>247.0632068558863</v>
+        <v>255.2950539517839</v>
       </c>
       <c r="O22" t="n">
         <v>222.7451017596998</v>
       </c>
       <c r="P22" t="n">
-        <v>185.4409651794494</v>
+        <v>177.2091180835516</v>
       </c>
       <c r="Q22" t="n">
         <v>102.293324848173</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36510,19 +36510,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266797</v>
+        <v>1.332299818266783</v>
       </c>
       <c r="J25" t="n">
-        <v>88.27060879450383</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K25" t="n">
         <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>233.6111041328051</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
         <v>270.7239495511832</v>
@@ -36537,7 +36537,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.59435009195013</v>
+        <v>17.5943500919499</v>
       </c>
       <c r="J26" t="n">
-        <v>249.9582808335887</v>
+        <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202767</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L26" t="n">
-        <v>514.7613942572084</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951029</v>
+        <v>598.0923956951027</v>
       </c>
       <c r="N26" t="n">
-        <v>611.4731152777877</v>
+        <v>611.4731152777874</v>
       </c>
       <c r="O26" t="n">
-        <v>567.2242807530954</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P26" t="n">
-        <v>457.933266084248</v>
+        <v>457.9332660842479</v>
       </c>
       <c r="Q26" t="n">
-        <v>309.9655846685956</v>
+        <v>309.9655846685955</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7844784070986</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7496964779423</v>
+        <v>104.7496964779422</v>
       </c>
       <c r="K28" t="n">
-        <v>265.2189394091957</v>
+        <v>158.475173064543</v>
       </c>
       <c r="L28" t="n">
-        <v>378.9286520350743</v>
+        <v>378.9286520350742</v>
       </c>
       <c r="M28" t="n">
-        <v>228.2949983489143</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N28" t="n">
-        <v>285.8683512761174</v>
+        <v>404.0282260324161</v>
       </c>
       <c r="O28" t="n">
-        <v>361.5244100875159</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P28" t="n">
-        <v>294.1283510099865</v>
+        <v>159.1217876959453</v>
       </c>
       <c r="Q28" t="n">
-        <v>137.5655184027697</v>
+        <v>82.6463123957208</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.5943500919501</v>
+        <v>17.59435009195008</v>
       </c>
       <c r="J29" t="n">
-        <v>249.9582808335886</v>
+        <v>249.9582808335887</v>
       </c>
       <c r="K29" t="n">
         <v>396.3625664202766</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7613942572082</v>
+        <v>514.7613942572083</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951028</v>
+        <v>598.0923956951017</v>
       </c>
       <c r="N29" t="n">
         <v>611.4731152777875</v>
       </c>
       <c r="O29" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530954</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842479</v>
+        <v>457.933266084248</v>
       </c>
       <c r="Q29" t="n">
-        <v>309.9655846685955</v>
+        <v>309.9655846685956</v>
       </c>
       <c r="R29" t="n">
         <v>118.7844784071008</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.11345515521894</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K31" t="n">
         <v>265.2189394091956</v>
       </c>
       <c r="L31" t="n">
-        <v>359.7479769792507</v>
+        <v>216.4539504935198</v>
       </c>
       <c r="M31" t="n">
-        <v>228.2949983489142</v>
+        <v>406.8046592583599</v>
       </c>
       <c r="N31" t="n">
         <v>404.0282260324161</v>
@@ -37005,10 +37005,10 @@
         <v>361.5244100875158</v>
       </c>
       <c r="P31" t="n">
-        <v>294.1283510099865</v>
+        <v>159.933516885798</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.22256002501825</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,19 +37063,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009195013</v>
+        <v>17.59435009195008</v>
       </c>
       <c r="J32" t="n">
         <v>249.9582808335886</v>
       </c>
       <c r="K32" t="n">
-        <v>396.3625664202766</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7613942572083</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951017</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N32" t="n">
         <v>611.4731152777875</v>
@@ -37084,13 +37084,13 @@
         <v>567.2242807530952</v>
       </c>
       <c r="P32" t="n">
-        <v>457.933266084248</v>
+        <v>457.9332660842479</v>
       </c>
       <c r="Q32" t="n">
-        <v>309.9655846685956</v>
+        <v>309.9655846685955</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7844784071009</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>378.9286520350742</v>
       </c>
       <c r="M34" t="n">
-        <v>273.1767899584979</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N34" t="n">
-        <v>404.0282260324162</v>
+        <v>285.8683512761185</v>
       </c>
       <c r="O34" t="n">
-        <v>198.4827437216334</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>294.1283510099865</v>
+        <v>294.1283510099864</v>
       </c>
       <c r="Q34" t="n">
         <v>137.5655184027697</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-1.449794268924649e-12</v>
       </c>
       <c r="J35" t="n">
         <v>190.7870009687126</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,31 +37458,31 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266826</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>98.35547617082626</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
-        <v>224.3924649189753</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L40" t="n">
-        <v>234.9434039510709</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N40" t="n">
         <v>173.0392293230783</v>
@@ -37716,13 +37716,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>99.46458104062536</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057592</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N43" t="n">
-        <v>259.452530203563</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
         <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>99.46458104062513</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,31 +38172,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>246.7844518064637</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>186.3638087115539</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
